--- a/Spreadsheet.xlsx
+++ b/Spreadsheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="10515" windowHeight="7230" tabRatio="716" firstSheet="13" activeTab="21"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="10515" windowHeight="7230" tabRatio="716" firstSheet="12" activeTab="22"/>
   </bookViews>
   <sheets>
     <sheet name="Skills" sheetId="1" r:id="rId1"/>
@@ -700,7 +700,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="699">
   <si>
     <t>Fishing</t>
   </si>
@@ -933,9 +933,6 @@
     <t>Bard</t>
   </si>
   <si>
-    <t>Fighter</t>
-  </si>
-  <si>
     <t>Samurai</t>
   </si>
   <si>
@@ -2007,9 +2004,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Passive</t>
-  </si>
-  <si>
     <t>Pre-Reqs</t>
   </si>
   <si>
@@ -2289,9 +2283,6 @@
     <t>Gain +50% stamina each round</t>
   </si>
   <si>
-    <t>Gain doubel crit damage and chance when using Axes</t>
-  </si>
-  <si>
     <t>Warrior, 3</t>
   </si>
   <si>
@@ -2307,18 +2298,6 @@
     <t>25% chance on taking an injury for it to be instead negated</t>
   </si>
   <si>
-    <t>Impatient Howl</t>
-  </si>
-  <si>
-    <t>Ability</t>
-  </si>
-  <si>
-    <t>Berserker, 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consume HoTs, but heal for amount consumed </t>
-  </si>
-  <si>
     <t>Gain +15% ap and stamina</t>
   </si>
   <si>
@@ -2340,18 +2319,12 @@
     <t>Roar</t>
   </si>
   <si>
-    <t>Frightens nearby enemies</t>
-  </si>
-  <si>
     <t>Taunt</t>
   </si>
   <si>
     <t>Knight, 2</t>
   </si>
   <si>
-    <t xml:space="preserve">Soldier,2 </t>
-  </si>
-  <si>
     <t>Target deals -50% dmg against all targets except taunter, but does +100% dmg to taunter</t>
   </si>
   <si>
@@ -2388,9 +2361,6 @@
     <t>Rage</t>
   </si>
   <si>
-    <t>Consume a random debuff, gain +20% hp</t>
-  </si>
-  <si>
     <t>Fury</t>
   </si>
   <si>
@@ -2406,18 +2376,6 @@
     <t>Gain 5 stamina when being hit</t>
   </si>
   <si>
-    <t>Bull Doze</t>
-  </si>
-  <si>
-    <t>Berserker, 5</t>
-  </si>
-  <si>
-    <t>Warrior, 7</t>
-  </si>
-  <si>
-    <t>Swap enemies with tile (Based on constitution delta between source and target)</t>
-  </si>
-  <si>
     <t>Heavy Armor Expert</t>
   </si>
   <si>
@@ -2454,9 +2412,6 @@
     <t>Mindrot</t>
   </si>
   <si>
-    <t>Debuffs intelligence 45%</t>
-  </si>
-  <si>
     <t>Stun targets who don't resist</t>
   </si>
   <si>
@@ -2559,9 +2514,6 @@
     <t xml:space="preserve">Slug </t>
   </si>
   <si>
-    <t>Leave a trail of slime when moving to tile this turn</t>
-  </si>
-  <si>
     <t>Spear Expert</t>
   </si>
   <si>
@@ -2599,6 +2551,252 @@
   </si>
   <si>
     <t>Damage done to this target that is less than 20% of its HP is immediately turned back against attacker</t>
+  </si>
+  <si>
+    <t>Gate</t>
+  </si>
+  <si>
+    <t>Random</t>
+  </si>
+  <si>
+    <t>Summon a random eldritch monster</t>
+  </si>
+  <si>
+    <t>Corruption</t>
+  </si>
+  <si>
+    <t>Increase a target's corruption by 10</t>
+  </si>
+  <si>
+    <t>Body Leech</t>
+  </si>
+  <si>
+    <t>Leech stamina from target</t>
+  </si>
+  <si>
+    <t>Void Might</t>
+  </si>
+  <si>
+    <t>Eldritch Push</t>
+  </si>
+  <si>
+    <t>Push a target back a square if not resisted</t>
+  </si>
+  <si>
+    <t>Eldritch Pull</t>
+  </si>
+  <si>
+    <t>Pull a target a square if not resisted</t>
+  </si>
+  <si>
+    <t>Starlight</t>
+  </si>
+  <si>
+    <t>Eldritch Weaver, 2</t>
+  </si>
+  <si>
+    <t>Targeting characters with a shield reduces this target's corruption by 1 and increases theirs by 3</t>
+  </si>
+  <si>
+    <t>Cranky</t>
+  </si>
+  <si>
+    <t>25% of the time, abilities do 50% more damage</t>
+  </si>
+  <si>
+    <t>Photosynthesis</t>
+  </si>
+  <si>
+    <t>Plants</t>
+  </si>
+  <si>
+    <t>Heals to this target also cause a DoT for 25% of the damage over 5 turns</t>
+  </si>
+  <si>
+    <t>Vile Spores</t>
+  </si>
+  <si>
+    <t>Mushrooms</t>
+  </si>
+  <si>
+    <t>Attacks to this target cause random nearby enemy to gain a DoT</t>
+  </si>
+  <si>
+    <t>Healing Spores</t>
+  </si>
+  <si>
+    <t>This target's attacks cause a random nearby ally to gain a HoT</t>
+  </si>
+  <si>
+    <t>Zen</t>
+  </si>
+  <si>
+    <t>Attacks to this target cause random nearby ally to gain a HoT for 25% of damage</t>
+  </si>
+  <si>
+    <t>Random nearby enemy gets bleed injury on this target's turn</t>
+  </si>
+  <si>
+    <t>Pettable</t>
+  </si>
+  <si>
+    <t>If this target doesn't take damage for 3 turns, 3rd turn causes massive critical buff</t>
+  </si>
+  <si>
+    <t>Poison Dart</t>
+  </si>
+  <si>
+    <t>Poison target if not dodged and resisted</t>
+  </si>
+  <si>
+    <t>Debuffs intelligence 30%</t>
+  </si>
+  <si>
+    <t>Poisonskin</t>
+  </si>
+  <si>
+    <t>Melee attackers have chance to become poisoned</t>
+  </si>
+  <si>
+    <t>Plaguebearer</t>
+  </si>
+  <si>
+    <t>Melee attacks on poisoned targets have chance to cause DoTs to spread</t>
+  </si>
+  <si>
+    <t>Ysera's Bane</t>
+  </si>
+  <si>
+    <t>Random enemy receives DoT on this character's turn</t>
+  </si>
+  <si>
+    <t>Poison Nova</t>
+  </si>
+  <si>
+    <t>Nearby targets receive powerful Poison DoT</t>
+  </si>
+  <si>
+    <t>Poison Lance</t>
+  </si>
+  <si>
+    <t>Toxic Blast</t>
+  </si>
+  <si>
+    <t>Rot</t>
+  </si>
+  <si>
+    <t>Poisoned targets also receive -5% constitution debuff</t>
+  </si>
+  <si>
+    <t>Noxious Vitatlity</t>
+  </si>
+  <si>
+    <t>Poisoning targets recovers 15 stamina on this target</t>
+  </si>
+  <si>
+    <t>Virulence</t>
+  </si>
+  <si>
+    <t>Poisoning a target that is already poisoned causes adjacent targets to receive the DoT</t>
+  </si>
+  <si>
+    <t>Septic Shock</t>
+  </si>
+  <si>
+    <t>Melee attacks against poisoned targets do +25% damage</t>
+  </si>
+  <si>
+    <t>Gain +50% crit with axes</t>
+  </si>
+  <si>
+    <t>Axe Mastery</t>
+  </si>
+  <si>
+    <t>Recover 5 stamina when doing damage to shields with axes</t>
+  </si>
+  <si>
+    <t>Bulldoze</t>
+  </si>
+  <si>
+    <t>Swap tiles with target if not resisted</t>
+  </si>
+  <si>
+    <t>Howl</t>
+  </si>
+  <si>
+    <t>Consume HoTs on self, but heal for amount consumed</t>
+  </si>
+  <si>
+    <t>Leave a trail of slime whenever moving a tile</t>
+  </si>
+  <si>
+    <t>Physical</t>
+  </si>
+  <si>
+    <t>Consume a random debuff, recover 20% hp</t>
+  </si>
+  <si>
+    <t>Reduce morale of nearby enemies</t>
+  </si>
+  <si>
+    <t>Shroom Herder, 3</t>
+  </si>
+  <si>
+    <t>Shroom Druid, 2</t>
+  </si>
+  <si>
+    <t>When nearby ally mushroom units are killed, this target receives +25% might and agility buff</t>
+  </si>
+  <si>
+    <t>Shroom Revenge</t>
+  </si>
+  <si>
+    <t>Rally</t>
+  </si>
+  <si>
+    <t>Soldier, 6</t>
+  </si>
+  <si>
+    <t>Knight, 4</t>
+  </si>
+  <si>
+    <t>Removes terrorized and routing from allies</t>
+  </si>
+  <si>
+    <t>Void Being</t>
+  </si>
+  <si>
+    <t>Eldritch</t>
+  </si>
+  <si>
+    <t>Immune to corruption</t>
+  </si>
+  <si>
+    <t>Increase a target's corruption by 20, but buff Might and Constitution by 50% (cannot target eldritch beings)</t>
+  </si>
+  <si>
+    <t>Trample</t>
+  </si>
+  <si>
+    <t>Run over enemies and cause them to move to random tiles, can only be blocked with spear wall</t>
+  </si>
+  <si>
+    <t>Charge</t>
+  </si>
+  <si>
+    <t>Charge into enemy and stun them</t>
+  </si>
+  <si>
+    <t>Leap</t>
+  </si>
+  <si>
+    <t>Wereween</t>
+  </si>
+  <si>
+    <t>Gromp</t>
+  </si>
+  <si>
+    <t>Jump on to target unoccupied tile, ignores spear wall</t>
   </si>
 </sst>
 </file>
@@ -2890,7 +3088,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2986,6 +3184,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3513,177 +3717,177 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
@@ -3764,32 +3968,32 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
@@ -3905,77 +4109,77 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
@@ -3985,22 +4189,22 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
@@ -4068,42 +4272,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
@@ -4113,17 +4317,17 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
@@ -4227,22 +4431,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
@@ -4367,47 +4571,47 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
@@ -4517,67 +4721,67 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
@@ -4698,169 +4902,169 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="D1" s="36" t="s">
-        <v>221</v>
-      </c>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="N1" s="36" t="s">
-        <v>218</v>
-      </c>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
+      <c r="D1" s="38" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="N1" s="38" t="s">
+        <v>217</v>
+      </c>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E2" t="s">
+        <v>295</v>
+      </c>
+      <c r="F2" t="s">
+        <v>297</v>
+      </c>
+      <c r="G2" t="s">
+        <v>296</v>
+      </c>
+      <c r="H2" t="s">
+        <v>294</v>
+      </c>
+      <c r="I2" t="s">
+        <v>305</v>
+      </c>
+      <c r="J2" t="s">
+        <v>300</v>
+      </c>
+      <c r="K2" t="s">
+        <v>299</v>
+      </c>
+      <c r="L2" t="s">
+        <v>298</v>
+      </c>
+      <c r="N2" t="s">
+        <v>301</v>
+      </c>
+      <c r="O2" t="s">
+        <v>291</v>
+      </c>
+      <c r="P2" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>282</v>
+      </c>
+      <c r="R2" t="s">
         <v>308</v>
       </c>
-      <c r="D2" t="s">
-        <v>305</v>
-      </c>
-      <c r="E2" t="s">
-        <v>296</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="S2" t="s">
+        <v>292</v>
+      </c>
+      <c r="T2" t="s">
+        <v>294</v>
+      </c>
+      <c r="U2" t="s">
+        <v>300</v>
+      </c>
+      <c r="V2" t="s">
+        <v>299</v>
+      </c>
+      <c r="W2" t="s">
         <v>298</v>
       </c>
-      <c r="G2" t="s">
-        <v>297</v>
-      </c>
-      <c r="H2" t="s">
-        <v>295</v>
-      </c>
-      <c r="I2" t="s">
-        <v>306</v>
-      </c>
-      <c r="J2" t="s">
-        <v>301</v>
-      </c>
-      <c r="K2" t="s">
-        <v>300</v>
-      </c>
-      <c r="L2" t="s">
-        <v>299</v>
-      </c>
-      <c r="N2" t="s">
-        <v>302</v>
-      </c>
-      <c r="O2" t="s">
-        <v>292</v>
-      </c>
-      <c r="P2" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>283</v>
-      </c>
-      <c r="R2" t="s">
-        <v>309</v>
-      </c>
-      <c r="S2" t="s">
-        <v>293</v>
-      </c>
-      <c r="T2" t="s">
-        <v>295</v>
-      </c>
-      <c r="U2" t="s">
-        <v>301</v>
-      </c>
-      <c r="V2" t="s">
-        <v>300</v>
-      </c>
-      <c r="W2" t="s">
-        <v>299</v>
-      </c>
       <c r="X2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M3" s="5"/>
       <c r="N3" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -4888,7 +5092,7 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -4916,7 +5120,7 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -4944,7 +5148,7 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -4972,7 +5176,7 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -5000,7 +5204,7 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -5028,7 +5232,7 @@
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -5056,7 +5260,7 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -5084,7 +5288,7 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -5112,7 +5316,7 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -5140,7 +5344,7 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -5168,7 +5372,7 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -5319,32 +5523,32 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
@@ -5354,7 +5558,7 @@
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
@@ -5472,31 +5676,31 @@
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E1" t="s">
+        <v>277</v>
+      </c>
+      <c r="F1" t="s">
         <v>280</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>278</v>
       </c>
-      <c r="F1" t="s">
-        <v>281</v>
-      </c>
-      <c r="G1" t="s">
-        <v>279</v>
-      </c>
       <c r="J1" t="s">
+        <v>353</v>
+      </c>
+      <c r="K1" t="s">
         <v>354</v>
       </c>
-      <c r="K1" t="s">
-        <v>355</v>
-      </c>
       <c r="O1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="P1">
         <v>550</v>
@@ -5504,7 +5708,7 @@
     </row>
     <row r="2" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B2" s="7">
         <v>0.2</v>
@@ -5529,7 +5733,7 @@
         <v>1000</v>
       </c>
       <c r="O2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="P2">
         <v>450</v>
@@ -5537,7 +5741,7 @@
     </row>
     <row r="3" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B3" s="16">
         <v>0.2</v>
@@ -5560,7 +5764,7 @@
         <v>1000</v>
       </c>
       <c r="O3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="P3">
         <v>100</v>
@@ -5568,7 +5772,7 @@
     </row>
     <row r="4" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B4" s="10">
         <v>0.8</v>
@@ -5591,7 +5795,7 @@
         <v>20</v>
       </c>
       <c r="O4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P4">
         <f xml:space="preserve"> 10%</f>
@@ -5600,7 +5804,7 @@
     </row>
     <row r="5" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B5" s="10">
         <v>0.4</v>
@@ -5625,7 +5829,7 @@
         <v>1000</v>
       </c>
       <c r="O5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5655,7 +5859,7 @@
     </row>
     <row r="7" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B7" s="10">
         <v>0.5</v>
@@ -5680,7 +5884,7 @@
     </row>
     <row r="8" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="11"/>
@@ -5705,7 +5909,7 @@
     </row>
     <row r="9" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="11"/>
@@ -5730,7 +5934,7 @@
     </row>
     <row r="10" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B10" s="10">
         <v>0.4</v>
@@ -5755,7 +5959,7 @@
     </row>
     <row r="11" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="11"/>
@@ -5780,7 +5984,7 @@
     </row>
     <row r="12" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="11">
@@ -5805,7 +6009,7 @@
     </row>
     <row r="13" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="11">
@@ -5830,7 +6034,7 @@
     </row>
     <row r="14" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B14" s="10">
         <v>0.4</v>
@@ -5857,7 +6061,7 @@
     </row>
     <row r="15" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="11">
@@ -5875,7 +6079,7 @@
     </row>
     <row r="16" spans="1:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B16" s="10">
         <v>0.4</v>
@@ -5902,7 +6106,7 @@
     </row>
     <row r="17" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B17" s="10">
         <v>0.6</v>
@@ -5927,7 +6131,7 @@
     </row>
     <row r="18" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="11"/>
@@ -5952,7 +6156,7 @@
     </row>
     <row r="19" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="11">
@@ -5979,7 +6183,7 @@
     </row>
     <row r="20" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B20" s="13"/>
       <c r="C20" s="14"/>
@@ -6217,20 +6421,20 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B2" t="s">
         <v>314</v>
-      </c>
-      <c r="B2" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -6259,7 +6463,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B1" t="s">
         <v>61</v>
@@ -6277,7 +6481,7 @@
         <v>64</v>
       </c>
       <c r="G1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H1" t="s">
         <v>56</v>
@@ -6285,25 +6489,25 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B2" t="s">
         <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D2" t="s">
+        <v>371</v>
+      </c>
+      <c r="E2" t="s">
         <v>372</v>
       </c>
-      <c r="E2" t="s">
-        <v>373</v>
-      </c>
       <c r="F2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H2" t="s">
         <v>66</v>
@@ -6311,25 +6515,25 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H3" t="s">
         <v>56</v>
@@ -6337,7 +6541,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B4" t="s">
         <v>59</v>
@@ -6346,129 +6550,129 @@
         <v>62</v>
       </c>
       <c r="D4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E4" t="s">
         <v>63</v>
       </c>
       <c r="F4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="F6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F7" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D8" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F8" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B9" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C9" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B10" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B11" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F11" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -6476,28 +6680,28 @@
         <v>67</v>
       </c>
       <c r="B12" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B13" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B14" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B15" t="s">
         <v>65</v>
@@ -6505,22 +6709,22 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
   </sheetData>
@@ -6530,1025 +6734,909 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I72"/>
+  <dimension ref="A1:H83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="I72" sqref="I72"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A84" sqref="A84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="102.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="102.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C1" s="36" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="38" t="s">
+        <v>434</v>
+      </c>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>432</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>433</v>
+      </c>
+      <c r="H2" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>556</v>
+      </c>
+      <c r="G3" t="s">
+        <v>557</v>
+      </c>
+      <c r="H3" s="31"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>556</v>
+      </c>
+      <c r="B4" t="s">
+        <v>610</v>
+      </c>
+      <c r="G4" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>556</v>
+      </c>
+      <c r="G5" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>335</v>
+      </c>
+      <c r="G6" t="s">
+        <v>508</v>
+      </c>
+      <c r="H6" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>519</v>
+      </c>
+      <c r="G7" t="s">
+        <v>498</v>
+      </c>
+      <c r="H7" s="31"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>145</v>
+      </c>
+      <c r="G8" t="s">
+        <v>532</v>
+      </c>
+      <c r="H8" s="31"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>528</v>
+      </c>
+      <c r="G9" t="s">
+        <v>668</v>
+      </c>
+      <c r="H9" s="31"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>669</v>
+      </c>
+      <c r="G10" t="s">
+        <v>670</v>
+      </c>
+      <c r="H10" s="36"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>516</v>
+      </c>
+      <c r="G11" t="s">
+        <v>517</v>
+      </c>
+      <c r="H11" s="31"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>460</v>
+      </c>
+      <c r="G12" t="s">
+        <v>461</v>
+      </c>
+      <c r="H12" s="31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>468</v>
+      </c>
+      <c r="G13" t="s">
+        <v>469</v>
+      </c>
+      <c r="H13" s="31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>462</v>
+      </c>
+      <c r="G14" t="s">
+        <v>463</v>
+      </c>
+      <c r="H14" s="32"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>323</v>
+      </c>
+      <c r="B15" t="s">
+        <v>529</v>
+      </c>
+      <c r="G15" t="s">
+        <v>507</v>
+      </c>
+      <c r="H15" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>470</v>
+      </c>
+      <c r="B16" t="s">
+        <v>524</v>
+      </c>
+      <c r="G16" t="s">
+        <v>471</v>
+      </c>
+      <c r="H16" s="31"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>544</v>
+      </c>
+      <c r="B17" t="s">
+        <v>539</v>
+      </c>
+      <c r="C17" t="s">
+        <v>542</v>
+      </c>
+      <c r="G17" t="s">
+        <v>545</v>
+      </c>
+      <c r="H17" s="31"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>429</v>
+      </c>
+      <c r="G18" t="s">
+        <v>435</v>
+      </c>
+      <c r="H18" s="32"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="G19" t="s">
+        <v>509</v>
+      </c>
+      <c r="H19" s="31"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>632</v>
+      </c>
+      <c r="B20" t="s">
+        <v>556</v>
+      </c>
+      <c r="G20" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>505</v>
+      </c>
+      <c r="G21" t="s">
+        <v>506</v>
+      </c>
+      <c r="H21" s="31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>547</v>
+      </c>
+      <c r="B22" t="s">
+        <v>172</v>
+      </c>
+      <c r="C22" t="s">
+        <v>536</v>
+      </c>
+      <c r="G22" t="s">
+        <v>546</v>
+      </c>
+      <c r="H22" s="32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>484</v>
+      </c>
+      <c r="G23" t="s">
+        <v>485</v>
+      </c>
+      <c r="H23" s="31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>472</v>
+      </c>
+      <c r="G24" t="s">
+        <v>473</v>
+      </c>
+      <c r="H24" s="31"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>316</v>
+      </c>
+      <c r="G25" t="s">
+        <v>518</v>
+      </c>
+      <c r="H25" s="32"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>553</v>
+      </c>
+      <c r="B26" t="s">
+        <v>529</v>
+      </c>
+      <c r="C26" t="s">
+        <v>524</v>
+      </c>
+      <c r="G26" t="s">
+        <v>554</v>
+      </c>
+      <c r="H26" s="31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>478</v>
+      </c>
+      <c r="G27" t="s">
+        <v>479</v>
+      </c>
+      <c r="H27" s="31"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>497</v>
+      </c>
+      <c r="G28" t="s">
+        <v>520</v>
+      </c>
+      <c r="H28" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>640</v>
+      </c>
+      <c r="B29" t="s">
+        <v>638</v>
+      </c>
+      <c r="G29" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>558</v>
+      </c>
+      <c r="G30" t="s">
+        <v>559</v>
+      </c>
+      <c r="H30" s="31"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>428</v>
+      </c>
+      <c r="G31" t="s">
         <v>436</v>
       </c>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>433</v>
-      </c>
-      <c r="B2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
+      <c r="H31" s="32"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>510</v>
+      </c>
+      <c r="G32" t="s">
+        <v>511</v>
+      </c>
+      <c r="H32" s="31"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>525</v>
+      </c>
+      <c r="G33" t="s">
+        <v>526</v>
+      </c>
+      <c r="H33" s="32"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>431</v>
+      </c>
+      <c r="G34" t="s">
+        <v>455</v>
+      </c>
+      <c r="H34" s="31"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>501</v>
+      </c>
+      <c r="B35" t="s">
+        <v>527</v>
+      </c>
+      <c r="G35" t="s">
+        <v>502</v>
+      </c>
+      <c r="H35" s="31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>495</v>
+      </c>
+      <c r="G36" t="s">
+        <v>496</v>
+      </c>
+      <c r="H36" s="32"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>493</v>
+      </c>
+      <c r="G37" t="s">
+        <v>494</v>
+      </c>
+      <c r="H37" s="31"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>480</v>
+      </c>
+      <c r="G38" t="s">
+        <v>481</v>
+      </c>
+      <c r="H38" s="31"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>458</v>
+      </c>
+      <c r="G39" t="s">
+        <v>459</v>
+      </c>
+      <c r="H39" s="31">
         <v>3</v>
       </c>
-      <c r="F2">
-        <v>4</v>
-      </c>
-      <c r="G2">
-        <v>5</v>
-      </c>
-      <c r="H2" t="s">
-        <v>434</v>
-      </c>
-      <c r="I2" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>336</v>
-      </c>
-      <c r="B3" t="s">
-        <v>435</v>
-      </c>
-      <c r="H3" t="s">
-        <v>510</v>
-      </c>
-      <c r="I3" s="31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>521</v>
-      </c>
-      <c r="B4" t="s">
-        <v>435</v>
-      </c>
-      <c r="H4" t="s">
-        <v>500</v>
-      </c>
-      <c r="I4" s="31"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>531</v>
-      </c>
-      <c r="B5" t="s">
-        <v>435</v>
-      </c>
-      <c r="H5" t="s">
-        <v>529</v>
-      </c>
-      <c r="I5" s="32"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>146</v>
-      </c>
-      <c r="B6" t="s">
-        <v>435</v>
-      </c>
-      <c r="H6" t="s">
-        <v>539</v>
-      </c>
-      <c r="I6" s="32"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>518</v>
-      </c>
-      <c r="B7" t="s">
-        <v>435</v>
-      </c>
-      <c r="H7" t="s">
-        <v>519</v>
-      </c>
-      <c r="I7" s="31"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>462</v>
-      </c>
-      <c r="B8" t="s">
-        <v>435</v>
-      </c>
-      <c r="H8" t="s">
-        <v>463</v>
-      </c>
-      <c r="I8" s="31">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>470</v>
-      </c>
-      <c r="B9" t="s">
-        <v>435</v>
-      </c>
-      <c r="H9" t="s">
-        <v>471</v>
-      </c>
-      <c r="I9" s="31">
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>550</v>
+      </c>
+      <c r="G40" t="s">
+        <v>551</v>
+      </c>
+      <c r="H40" s="32"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>599</v>
+      </c>
+      <c r="B41" t="s">
+        <v>600</v>
+      </c>
+      <c r="G41" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>150</v>
+      </c>
+      <c r="G42" t="s">
+        <v>504</v>
+      </c>
+      <c r="H42" s="32">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>464</v>
-      </c>
-      <c r="B10" t="s">
-        <v>435</v>
-      </c>
-      <c r="H10" t="s">
-        <v>465</v>
-      </c>
-      <c r="I10" s="31"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>324</v>
-      </c>
-      <c r="B11" t="s">
-        <v>435</v>
-      </c>
-      <c r="C11" t="s">
-        <v>532</v>
-      </c>
-      <c r="H11" t="s">
-        <v>509</v>
-      </c>
-      <c r="I11" s="31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>472</v>
-      </c>
-      <c r="B12" t="s">
-        <v>435</v>
-      </c>
-      <c r="C12" t="s">
-        <v>526</v>
-      </c>
-      <c r="H12" t="s">
-        <v>473</v>
-      </c>
-      <c r="I12" s="31"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>568</v>
-      </c>
-      <c r="B13" t="s">
-        <v>536</v>
-      </c>
-      <c r="C13" t="s">
-        <v>569</v>
-      </c>
-      <c r="D13" t="s">
-        <v>570</v>
-      </c>
-      <c r="H13" t="s">
-        <v>571</v>
-      </c>
-      <c r="I13" s="32"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>553</v>
-      </c>
-      <c r="B14" t="s">
-        <v>435</v>
-      </c>
-      <c r="C14" t="s">
-        <v>547</v>
-      </c>
-      <c r="D14" t="s">
-        <v>551</v>
-      </c>
-      <c r="H14" t="s">
-        <v>554</v>
-      </c>
-      <c r="I14" s="32"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>430</v>
-      </c>
-      <c r="B15" t="s">
-        <v>435</v>
-      </c>
-      <c r="H15" t="s">
-        <v>437</v>
-      </c>
-      <c r="I15" s="31"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" t="s">
-        <v>435</v>
-      </c>
-      <c r="H16" t="s">
-        <v>511</v>
-      </c>
-      <c r="I16" s="31"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>507</v>
-      </c>
-      <c r="B17" t="s">
-        <v>435</v>
-      </c>
-      <c r="H17" t="s">
-        <v>508</v>
-      </c>
-      <c r="I17" s="31">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>556</v>
-      </c>
-      <c r="B18" t="s">
-        <v>435</v>
-      </c>
-      <c r="C18" t="s">
-        <v>173</v>
-      </c>
-      <c r="D18" t="s">
-        <v>543</v>
-      </c>
-      <c r="H18" t="s">
-        <v>555</v>
-      </c>
-      <c r="I18" s="32">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>486</v>
-      </c>
-      <c r="B19" t="s">
-        <v>435</v>
-      </c>
-      <c r="H19" t="s">
-        <v>487</v>
-      </c>
-      <c r="I19" s="31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>474</v>
-      </c>
-      <c r="B20" t="s">
-        <v>435</v>
-      </c>
-      <c r="H20" t="s">
-        <v>475</v>
-      </c>
-      <c r="I20" s="31"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>317</v>
-      </c>
-      <c r="B21" t="s">
-        <v>435</v>
-      </c>
-      <c r="H21" t="s">
-        <v>520</v>
-      </c>
-      <c r="I21" s="31"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>563</v>
-      </c>
-      <c r="B22" t="s">
-        <v>435</v>
-      </c>
-      <c r="C22" t="s">
-        <v>532</v>
-      </c>
-      <c r="D22" t="s">
-        <v>526</v>
-      </c>
-      <c r="H22" t="s">
-        <v>564</v>
-      </c>
-      <c r="I22" s="32">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>480</v>
-      </c>
-      <c r="B23" t="s">
-        <v>435</v>
-      </c>
-      <c r="H23" t="s">
-        <v>481</v>
-      </c>
-      <c r="I23" s="31"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>503</v>
-      </c>
-      <c r="B24" t="s">
-        <v>435</v>
-      </c>
-      <c r="C24" t="s">
-        <v>530</v>
-      </c>
-      <c r="H24" t="s">
-        <v>504</v>
-      </c>
-      <c r="I24" s="31">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>572</v>
-      </c>
-      <c r="B25" t="s">
-        <v>435</v>
-      </c>
-      <c r="H25" t="s">
-        <v>573</v>
-      </c>
-      <c r="I25" s="32"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>499</v>
-      </c>
-      <c r="B26" t="s">
-        <v>435</v>
-      </c>
-      <c r="H26" t="s">
-        <v>522</v>
-      </c>
-      <c r="I26" s="31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>429</v>
-      </c>
-      <c r="B27" t="s">
-        <v>435</v>
-      </c>
-      <c r="H27" t="s">
-        <v>438</v>
-      </c>
-      <c r="I27" s="31"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>662</v>
+      </c>
+      <c r="G43" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>535</v>
-      </c>
-      <c r="B28" t="s">
-        <v>536</v>
-      </c>
-      <c r="C28" t="s">
-        <v>526</v>
-      </c>
-      <c r="D28" t="s">
-        <v>537</v>
-      </c>
-      <c r="H28" t="s">
-        <v>538</v>
-      </c>
-      <c r="I28" s="32"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>512</v>
-      </c>
-      <c r="B29" t="s">
-        <v>435</v>
-      </c>
-      <c r="H29" t="s">
-        <v>513</v>
-      </c>
-      <c r="I29" s="31"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>432</v>
-      </c>
-      <c r="B30" t="s">
-        <v>435</v>
-      </c>
-      <c r="H30" t="s">
-        <v>457</v>
-      </c>
-      <c r="I30" s="31"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>527</v>
-      </c>
-      <c r="B31" t="s">
-        <v>435</v>
-      </c>
-      <c r="H31" t="s">
-        <v>528</v>
-      </c>
-      <c r="I31" s="32"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>497</v>
-      </c>
-      <c r="B32" t="s">
-        <v>435</v>
-      </c>
-      <c r="H32" t="s">
-        <v>498</v>
-      </c>
-      <c r="I32" s="31"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>495</v>
-      </c>
-      <c r="B33" t="s">
-        <v>435</v>
-      </c>
-      <c r="H33" t="s">
-        <v>496</v>
-      </c>
-      <c r="I33" s="31"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>551</v>
-      </c>
-      <c r="B34" t="s">
-        <v>536</v>
-      </c>
-      <c r="C34" t="s">
-        <v>548</v>
-      </c>
-      <c r="F34" t="s">
-        <v>549</v>
-      </c>
-      <c r="G34" t="s">
-        <v>530</v>
-      </c>
-      <c r="H34" t="s">
-        <v>552</v>
-      </c>
-      <c r="I34" s="32"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>482</v>
-      </c>
-      <c r="B35" t="s">
-        <v>435</v>
-      </c>
-      <c r="H35" t="s">
-        <v>483</v>
-      </c>
-      <c r="I35" s="31"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>460</v>
-      </c>
-      <c r="B36" t="s">
-        <v>435</v>
-      </c>
-      <c r="H36" t="s">
-        <v>461</v>
-      </c>
-      <c r="I36" s="31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>559</v>
-      </c>
-      <c r="B37" t="s">
-        <v>435</v>
-      </c>
-      <c r="H37" t="s">
-        <v>560</v>
-      </c>
-      <c r="I37" s="32"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>151</v>
-      </c>
-      <c r="B38" t="s">
-        <v>435</v>
-      </c>
-      <c r="H38" t="s">
-        <v>506</v>
-      </c>
-      <c r="I38" s="31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>542</v>
-      </c>
-      <c r="B39" t="s">
-        <v>435</v>
-      </c>
-      <c r="C39" t="s">
-        <v>543</v>
-      </c>
-      <c r="H39" t="s">
-        <v>544</v>
-      </c>
-      <c r="I39" s="32"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>514</v>
-      </c>
-      <c r="B40" t="s">
-        <v>435</v>
-      </c>
-      <c r="H40" t="s">
-        <v>515</v>
-      </c>
-      <c r="I40" s="31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>476</v>
-      </c>
-      <c r="B41" t="s">
-        <v>435</v>
-      </c>
-      <c r="H41" t="s">
-        <v>477</v>
-      </c>
-      <c r="I41" s="31"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>561</v>
-      </c>
-      <c r="B42" t="s">
-        <v>536</v>
-      </c>
-      <c r="C42" t="s">
-        <v>541</v>
-      </c>
-      <c r="H42" t="s">
-        <v>562</v>
-      </c>
-      <c r="I42" s="32"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>501</v>
-      </c>
-      <c r="B43" t="s">
-        <v>435</v>
-      </c>
-      <c r="H43" t="s">
-        <v>502</v>
-      </c>
-      <c r="I43" s="31"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>540</v>
       </c>
       <c r="B44" t="s">
         <v>536</v>
       </c>
-      <c r="C44" t="s">
-        <v>541</v>
-      </c>
-      <c r="H44" t="s">
-        <v>565</v>
-      </c>
-      <c r="I44" s="32"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G44" t="s">
+        <v>537</v>
+      </c>
+      <c r="H44" s="31"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>545</v>
-      </c>
-      <c r="B45" t="s">
+        <v>512</v>
+      </c>
+      <c r="G45" t="s">
+        <v>513</v>
+      </c>
+      <c r="H45" s="31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>645</v>
+      </c>
+      <c r="G46" t="s">
+        <v>646</v>
+      </c>
+      <c r="H46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>634</v>
+      </c>
+      <c r="B47" t="s">
+        <v>635</v>
+      </c>
+      <c r="G47" t="s">
+        <v>636</v>
+      </c>
+      <c r="H47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>596</v>
+      </c>
+      <c r="G48" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>652</v>
+      </c>
+      <c r="G49" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>650</v>
+      </c>
+      <c r="G50" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>474</v>
+      </c>
+      <c r="G51" t="s">
+        <v>475</v>
+      </c>
+      <c r="H51" s="31"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>499</v>
+      </c>
+      <c r="G52" t="s">
+        <v>500</v>
+      </c>
+      <c r="H52" s="31"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>605</v>
+      </c>
+      <c r="B53" t="s">
+        <v>174</v>
+      </c>
+      <c r="C53" t="s">
         <v>536</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D53" t="s">
+        <v>328</v>
+      </c>
+      <c r="G53" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>660</v>
+      </c>
+      <c r="G54" t="s">
+        <v>661</v>
+      </c>
+      <c r="H54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>486</v>
+      </c>
+      <c r="G55" t="s">
+        <v>487</v>
+      </c>
+      <c r="H55" s="31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>464</v>
+      </c>
+      <c r="G56" t="s">
+        <v>465</v>
+      </c>
+      <c r="H56" s="31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>430</v>
+      </c>
+      <c r="G57" t="s">
+        <v>437</v>
+      </c>
+      <c r="H57" s="36"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>666</v>
+      </c>
+      <c r="G58" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>476</v>
+      </c>
+      <c r="G59" t="s">
+        <v>477</v>
+      </c>
+      <c r="H59" s="35"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>482</v>
+      </c>
+      <c r="G60" t="s">
+        <v>483</v>
+      </c>
+      <c r="H60" s="36"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>602</v>
+      </c>
+      <c r="B61" t="s">
+        <v>603</v>
+      </c>
+      <c r="G61" t="s">
+        <v>675</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>449</v>
+      </c>
+      <c r="G62" t="s">
+        <v>521</v>
+      </c>
+      <c r="H62" s="36"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>604</v>
+      </c>
+      <c r="G63" t="s">
+        <v>598</v>
+      </c>
+      <c r="H63" s="36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>488</v>
+      </c>
+      <c r="G64" t="s">
+        <v>489</v>
+      </c>
+      <c r="H64" s="36"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>629</v>
+      </c>
+      <c r="B65" t="s">
+        <v>630</v>
+      </c>
+      <c r="G65" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>514</v>
+      </c>
+      <c r="G66" t="s">
+        <v>515</v>
+      </c>
+      <c r="H66" s="36"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>594</v>
+      </c>
+      <c r="G67" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>615</v>
+      </c>
+      <c r="G68" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="34" t="s">
         <v>530</v>
       </c>
-      <c r="D45" t="s">
-        <v>543</v>
-      </c>
-      <c r="H45" t="s">
-        <v>546</v>
-      </c>
-      <c r="I45" s="32"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>488</v>
-      </c>
-      <c r="B46" t="s">
-        <v>435</v>
-      </c>
-      <c r="H46" t="s">
-        <v>489</v>
-      </c>
-      <c r="I46" s="31">
+      <c r="B69" t="s">
+        <v>524</v>
+      </c>
+      <c r="G69" t="s">
+        <v>531</v>
+      </c>
+      <c r="H69" s="36"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>456</v>
+      </c>
+      <c r="G70" t="s">
+        <v>457</v>
+      </c>
+      <c r="H70" s="36"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>548</v>
+      </c>
+      <c r="G71" t="s">
+        <v>549</v>
+      </c>
+      <c r="H71" s="36"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>522</v>
+      </c>
+      <c r="B72" t="s">
+        <v>524</v>
+      </c>
+      <c r="G72" t="s">
+        <v>523</v>
+      </c>
+      <c r="H72" s="36"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>637</v>
+      </c>
+      <c r="B73" t="s">
+        <v>638</v>
+      </c>
+      <c r="G73" t="s">
+        <v>639</v>
+      </c>
+      <c r="H73">
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>466</v>
       </c>
-      <c r="B47" t="s">
-        <v>435</v>
-      </c>
-      <c r="H47" t="s">
+      <c r="G74" t="s">
         <v>467</v>
       </c>
-      <c r="I47" s="31">
+      <c r="H74" s="36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>664</v>
+      </c>
+      <c r="G75" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>612</v>
+      </c>
+      <c r="B76" t="s">
+        <v>613</v>
+      </c>
+      <c r="G76" t="s">
+        <v>614</v>
+      </c>
+      <c r="H76">
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>431</v>
-      </c>
-      <c r="B48" t="s">
-        <v>435</v>
-      </c>
-      <c r="H48" t="s">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>438</v>
+      </c>
+      <c r="G77" t="s">
         <v>439</v>
       </c>
-      <c r="I48" s="31"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>478</v>
-      </c>
-      <c r="B49" t="s">
-        <v>435</v>
-      </c>
-      <c r="H49" t="s">
-        <v>479</v>
-      </c>
-      <c r="I49" s="31"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>484</v>
-      </c>
-      <c r="B50" t="s">
-        <v>435</v>
-      </c>
-      <c r="H50" t="s">
-        <v>485</v>
-      </c>
-      <c r="I50" s="31"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>451</v>
-      </c>
-      <c r="B51" t="s">
-        <v>435</v>
-      </c>
-      <c r="H51" t="s">
-        <v>523</v>
-      </c>
-      <c r="I51" s="31"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>516</v>
-      </c>
-      <c r="B52" t="s">
-        <v>435</v>
-      </c>
-      <c r="H52" t="s">
-        <v>517</v>
-      </c>
-      <c r="I52" s="31"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>490</v>
-      </c>
-      <c r="B53" t="s">
-        <v>435</v>
-      </c>
-      <c r="H53" t="s">
-        <v>491</v>
-      </c>
-      <c r="I53" s="31"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>547</v>
-      </c>
-      <c r="B54" t="s">
-        <v>536</v>
-      </c>
-      <c r="C54" t="s">
-        <v>548</v>
-      </c>
-      <c r="F54" t="s">
-        <v>549</v>
-      </c>
-      <c r="G54" t="s">
-        <v>530</v>
-      </c>
-      <c r="H54" t="s">
-        <v>550</v>
-      </c>
-      <c r="I54" s="32"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="34" t="s">
+      <c r="H77" s="36"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>654</v>
+      </c>
+      <c r="G78" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>607</v>
+      </c>
+      <c r="B79" t="s">
+        <v>608</v>
+      </c>
+      <c r="G79" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>642</v>
+      </c>
+      <c r="G80" t="s">
+        <v>643</v>
+      </c>
+      <c r="H80">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>533</v>
       </c>
-      <c r="B55" t="s">
-        <v>435</v>
-      </c>
-      <c r="C55" t="s">
-        <v>526</v>
-      </c>
-      <c r="H55" t="s">
+      <c r="B81" t="s">
         <v>534</v>
       </c>
-      <c r="I55" s="32"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>458</v>
-      </c>
-      <c r="B56" t="s">
-        <v>435</v>
-      </c>
-      <c r="H56" t="s">
-        <v>459</v>
-      </c>
-      <c r="I56" s="31"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>557</v>
-      </c>
-      <c r="B57" t="s">
-        <v>435</v>
-      </c>
-      <c r="H57" t="s">
-        <v>558</v>
-      </c>
-      <c r="I57" s="32"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>524</v>
-      </c>
-      <c r="B58" t="s">
-        <v>435</v>
-      </c>
-      <c r="C58" t="s">
-        <v>526</v>
-      </c>
-      <c r="H58" t="s">
-        <v>525</v>
-      </c>
-      <c r="I58" s="32"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>468</v>
-      </c>
-      <c r="B59" t="s">
-        <v>435</v>
-      </c>
-      <c r="H59" t="s">
-        <v>469</v>
-      </c>
-      <c r="I59" s="31">
+      <c r="G81" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>682</v>
+      </c>
+      <c r="B82" t="s">
+        <v>679</v>
+      </c>
+      <c r="C82" t="s">
+        <v>680</v>
+      </c>
+      <c r="G82" t="s">
+        <v>681</v>
+      </c>
+      <c r="H82">
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>440</v>
-      </c>
-      <c r="B60" t="s">
-        <v>435</v>
-      </c>
-      <c r="H60" t="s">
-        <v>441</v>
-      </c>
-      <c r="I60" s="31"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>566</v>
-      </c>
-      <c r="B61" t="s">
-        <v>435</v>
-      </c>
-      <c r="H61" t="s">
-        <v>567</v>
-      </c>
-      <c r="I61" s="31"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>609</v>
-      </c>
-      <c r="B62" t="s">
-        <v>435</v>
-      </c>
-      <c r="H62" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>611</v>
-      </c>
-      <c r="B63" t="s">
-        <v>435</v>
-      </c>
-      <c r="H63" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>620</v>
-      </c>
-      <c r="B64" t="s">
-        <v>435</v>
-      </c>
-      <c r="H64" t="s">
-        <v>613</v>
-      </c>
-      <c r="I64" s="35">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>614</v>
-      </c>
-      <c r="B65" t="s">
-        <v>435</v>
-      </c>
-      <c r="C65" t="s">
-        <v>615</v>
-      </c>
-      <c r="H65" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>617</v>
-      </c>
-      <c r="B66" t="s">
-        <v>536</v>
-      </c>
-      <c r="C66" t="s">
-        <v>618</v>
-      </c>
-      <c r="H66" t="s">
-        <v>619</v>
-      </c>
-      <c r="I66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>621</v>
-      </c>
-      <c r="B67" t="s">
-        <v>435</v>
-      </c>
-      <c r="C67" t="s">
-        <v>175</v>
-      </c>
-      <c r="D67" t="s">
-        <v>543</v>
-      </c>
-      <c r="E67" t="s">
-        <v>329</v>
-      </c>
-      <c r="H67" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>623</v>
-      </c>
-      <c r="B68" t="s">
-        <v>435</v>
-      </c>
-      <c r="C68" t="s">
-        <v>624</v>
-      </c>
-      <c r="H68" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>566</v>
-      </c>
-      <c r="B69" t="s">
-        <v>435</v>
-      </c>
-      <c r="C69" t="s">
-        <v>626</v>
-      </c>
-      <c r="H69" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>628</v>
-      </c>
-      <c r="B70" t="s">
-        <v>435</v>
-      </c>
-      <c r="C70" t="s">
-        <v>629</v>
-      </c>
-      <c r="H70" t="s">
-        <v>630</v>
-      </c>
-      <c r="I70">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>631</v>
-      </c>
-      <c r="B72" t="s">
-        <v>435</v>
-      </c>
-      <c r="H72" t="s">
-        <v>632</v>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>687</v>
+      </c>
+      <c r="B83" t="s">
+        <v>688</v>
+      </c>
+      <c r="G83" t="s">
+        <v>689</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:H25">
-    <sortCondition ref="A3:A25"/>
+  <sortState ref="A3:I86">
+    <sortCondition ref="A3:A86"/>
   </sortState>
   <mergeCells count="1">
-    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="B1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7556,10 +7644,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7567,29 +7655,30 @@
     <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="64.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="87.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.140625" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D1" s="36" t="s">
-        <v>436</v>
-      </c>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
+      <c r="D1" s="38" t="s">
+        <v>434</v>
+      </c>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
       <c r="I1" s="31"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D2" s="31">
         <v>1</v>
@@ -7607,24 +7696,24 @@
         <v>5</v>
       </c>
       <c r="I2" s="31" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="J2" s="31" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="K2" s="35" t="s">
-        <v>579</v>
+        <v>565</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D3" s="31"/>
       <c r="E3" s="31"/>
@@ -7635,18 +7724,18 @@
         <v>4</v>
       </c>
       <c r="J3" s="31" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D4" s="31"/>
       <c r="E4" s="31"/>
@@ -7657,18 +7746,18 @@
         <v>4</v>
       </c>
       <c r="J4" s="31" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -7679,7 +7768,7 @@
         <v>4</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="K5" s="35">
         <v>3</v>
@@ -7687,56 +7776,56 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C6" s="33" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="I6" s="33">
         <v>6</v>
       </c>
       <c r="J6" s="33" t="s">
-        <v>574</v>
+        <v>560</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>575</v>
+        <v>561</v>
       </c>
       <c r="I7" s="33">
         <v>6</v>
       </c>
       <c r="J7" s="33" t="s">
-        <v>576</v>
+        <v>562</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="B8" s="33" t="s">
         <v>33</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="I8" s="33">
         <v>6</v>
       </c>
       <c r="J8" s="33" t="s">
-        <v>578</v>
+        <v>564</v>
       </c>
       <c r="K8" s="35">
         <v>3</v>
@@ -7744,59 +7833,59 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>580</v>
+        <v>566</v>
       </c>
       <c r="D9" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="I9" s="33">
         <v>3</v>
       </c>
       <c r="J9" s="33" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="B10" s="33" t="s">
         <v>33</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>580</v>
+        <v>566</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="I10" s="33">
         <v>5</v>
       </c>
       <c r="J10" s="33" t="s">
-        <v>582</v>
+        <v>568</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
-        <v>583</v>
+        <v>569</v>
       </c>
       <c r="B11" s="33" t="s">
         <v>33</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>575</v>
+        <v>561</v>
       </c>
       <c r="I11" s="33">
         <v>6</v>
       </c>
       <c r="J11" s="33" t="s">
-        <v>584</v>
+        <v>649</v>
       </c>
       <c r="K11" s="35">
         <v>5</v>
@@ -7804,22 +7893,22 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
-        <v>586</v>
+        <v>571</v>
       </c>
       <c r="B12" s="33" t="s">
         <v>33</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="I12" s="33">
         <v>3</v>
       </c>
       <c r="J12" s="33" t="s">
-        <v>585</v>
+        <v>570</v>
       </c>
       <c r="K12" s="35">
         <v>3</v>
@@ -7827,19 +7916,19 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
-        <v>587</v>
+        <v>572</v>
       </c>
       <c r="B13" s="33" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="I13" s="33">
         <v>4</v>
       </c>
       <c r="J13" s="33" t="s">
-        <v>588</v>
+        <v>573</v>
       </c>
       <c r="K13" s="35">
         <v>3</v>
@@ -7847,42 +7936,42 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
-        <v>589</v>
+        <v>574</v>
       </c>
       <c r="B14" s="33" t="s">
         <v>33</v>
       </c>
       <c r="C14" s="33" t="s">
+        <v>561</v>
+      </c>
+      <c r="D14" s="33" t="s">
         <v>575</v>
-      </c>
-      <c r="D14" s="33" t="s">
-        <v>590</v>
       </c>
       <c r="I14" s="33">
         <v>4</v>
       </c>
       <c r="J14" s="33" t="s">
-        <v>591</v>
+        <v>576</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
-        <v>592</v>
+        <v>577</v>
       </c>
       <c r="B15" s="33" t="s">
         <v>33</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>575</v>
+        <v>561</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="I15" s="33">
         <v>6</v>
       </c>
       <c r="J15" s="33" t="s">
-        <v>593</v>
+        <v>578</v>
       </c>
       <c r="K15" s="35">
         <v>5</v>
@@ -7890,19 +7979,19 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
-        <v>594</v>
+        <v>579</v>
       </c>
       <c r="B16" s="33" t="s">
         <v>33</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>575</v>
+        <v>561</v>
       </c>
       <c r="I16" s="33">
         <v>5</v>
       </c>
       <c r="J16" s="33" t="s">
-        <v>595</v>
+        <v>580</v>
       </c>
       <c r="K16" s="35">
         <v>5</v>
@@ -7910,53 +7999,53 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
-        <v>596</v>
+        <v>581</v>
       </c>
       <c r="B17" s="33" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>598</v>
+        <v>583</v>
       </c>
       <c r="I17" s="33">
         <v>1</v>
       </c>
       <c r="J17" s="33" t="s">
-        <v>597</v>
+        <v>582</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="33" t="s">
-        <v>599</v>
+        <v>584</v>
       </c>
       <c r="B18" s="33" t="s">
         <v>33</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>575</v>
+        <v>561</v>
       </c>
       <c r="I18" s="33">
         <v>5</v>
       </c>
       <c r="J18" s="33" t="s">
-        <v>600</v>
+        <v>585</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
-        <v>601</v>
+        <v>586</v>
       </c>
       <c r="B19" s="33" t="s">
         <v>33</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>575</v>
+        <v>561</v>
       </c>
       <c r="I19" s="33">
         <v>3</v>
       </c>
       <c r="J19" s="33" t="s">
-        <v>602</v>
+        <v>587</v>
       </c>
       <c r="K19" s="35">
         <v>5</v>
@@ -7964,40 +8053,402 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="33" t="s">
-        <v>603</v>
+        <v>588</v>
       </c>
       <c r="B20" s="33" t="s">
         <v>33</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>575</v>
+        <v>561</v>
       </c>
       <c r="I20" s="33">
         <v>3</v>
       </c>
       <c r="J20" s="33" t="s">
-        <v>604</v>
+        <v>589</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="35" t="s">
-        <v>605</v>
+        <v>590</v>
       </c>
       <c r="B21" s="35" t="s">
-        <v>606</v>
+        <v>591</v>
       </c>
       <c r="C21" s="35" t="s">
-        <v>580</v>
+        <v>566</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>607</v>
+        <v>592</v>
       </c>
       <c r="I21" s="35">
         <v>1</v>
       </c>
       <c r="J21" s="35" t="s">
-        <v>608</v>
-      </c>
+        <v>593</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="36" t="s">
+        <v>617</v>
+      </c>
+      <c r="B22" s="36" t="s">
+        <v>442</v>
+      </c>
+      <c r="C22" s="36" t="s">
+        <v>566</v>
+      </c>
+      <c r="I22" t="s">
+        <v>618</v>
+      </c>
+      <c r="J22" s="36" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="36" t="s">
+        <v>620</v>
+      </c>
+      <c r="B23" s="36" t="s">
+        <v>442</v>
+      </c>
+      <c r="C23" s="36" t="s">
+        <v>561</v>
+      </c>
+      <c r="I23" s="36">
+        <v>5</v>
+      </c>
+      <c r="J23" s="36" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="36" t="s">
+        <v>622</v>
+      </c>
+      <c r="B24" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="36" t="s">
+        <v>561</v>
+      </c>
+      <c r="I24" s="36">
+        <v>4</v>
+      </c>
+      <c r="J24" s="36" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="36" t="s">
+        <v>624</v>
+      </c>
+      <c r="B25" s="36" t="s">
+        <v>442</v>
+      </c>
+      <c r="C25" s="36" t="s">
+        <v>561</v>
+      </c>
+      <c r="I25" s="36">
+        <v>5</v>
+      </c>
+      <c r="J25" s="36" t="s">
+        <v>690</v>
+      </c>
+      <c r="K25" s="35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="36" t="s">
+        <v>625</v>
+      </c>
+      <c r="B26" s="36" t="s">
+        <v>442</v>
+      </c>
+      <c r="C26" s="36" t="s">
+        <v>561</v>
+      </c>
+      <c r="I26" s="36">
+        <v>4</v>
+      </c>
+      <c r="J26" s="36" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="36" t="s">
+        <v>627</v>
+      </c>
+      <c r="B27" s="36" t="s">
+        <v>442</v>
+      </c>
+      <c r="C27" s="36" t="s">
+        <v>561</v>
+      </c>
+      <c r="I27" s="36">
+        <v>4</v>
+      </c>
+      <c r="J27" s="36" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="36" t="s">
+        <v>647</v>
+      </c>
+      <c r="B28" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="36" t="s">
+        <v>441</v>
+      </c>
+      <c r="I28" s="36">
+        <v>7</v>
+      </c>
+      <c r="J28" s="36" t="s">
+        <v>648</v>
+      </c>
+      <c r="K28" s="35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="36" t="s">
+        <v>656</v>
+      </c>
+      <c r="B29" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="36" t="s">
+        <v>491</v>
+      </c>
+      <c r="I29" s="36">
+        <v>0</v>
+      </c>
+      <c r="J29" s="36" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="36" t="s">
+        <v>658</v>
+      </c>
+      <c r="B30" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="36" t="s">
+        <v>451</v>
+      </c>
+      <c r="I30" s="36">
+        <v>3</v>
+      </c>
+      <c r="J30" s="36" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="36" t="s">
+        <v>659</v>
+      </c>
+      <c r="B31" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="36" t="s">
+        <v>491</v>
+      </c>
+      <c r="I31" s="36">
+        <v>4</v>
+      </c>
+      <c r="J31" s="36" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="36" t="s">
+        <v>671</v>
+      </c>
+      <c r="B32" s="36" t="s">
+        <v>676</v>
+      </c>
+      <c r="C32" s="36" t="s">
+        <v>561</v>
+      </c>
+      <c r="I32" s="36">
+        <v>1</v>
+      </c>
+      <c r="J32" s="36" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="36" t="s">
+        <v>673</v>
+      </c>
+      <c r="B33" s="36" t="s">
+        <v>676</v>
+      </c>
+      <c r="C33" s="36" t="s">
+        <v>561</v>
+      </c>
+      <c r="I33" s="36">
+        <v>0</v>
+      </c>
+      <c r="J33" s="36" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="36" t="s">
+        <v>542</v>
+      </c>
+      <c r="B34" s="36" t="s">
+        <v>676</v>
+      </c>
+      <c r="C34" s="36" t="s">
+        <v>491</v>
+      </c>
+      <c r="I34" s="36">
+        <v>0</v>
+      </c>
+      <c r="J34" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="36" t="s">
+        <v>552</v>
+      </c>
+      <c r="B35" s="36" t="s">
+        <v>676</v>
+      </c>
+      <c r="C35" s="36" t="s">
+        <v>561</v>
+      </c>
+      <c r="D35" s="36" t="s">
+        <v>534</v>
+      </c>
+      <c r="I35" s="36">
+        <v>0</v>
+      </c>
+      <c r="J35" s="36" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="36" t="s">
+        <v>538</v>
+      </c>
+      <c r="B36" s="36" t="s">
+        <v>676</v>
+      </c>
+      <c r="C36" s="36" t="s">
+        <v>491</v>
+      </c>
+      <c r="D36" s="36" t="s">
+        <v>527</v>
+      </c>
+      <c r="I36" s="36">
+        <v>0</v>
+      </c>
+      <c r="J36" s="36" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="36" t="s">
+        <v>539</v>
+      </c>
+      <c r="B37" s="36" t="s">
+        <v>676</v>
+      </c>
+      <c r="C37" s="36" t="s">
+        <v>561</v>
+      </c>
+      <c r="D37" s="36" t="s">
+        <v>527</v>
+      </c>
+      <c r="E37" s="36" t="s">
+        <v>540</v>
+      </c>
+      <c r="J37" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="36" t="s">
+        <v>683</v>
+      </c>
+      <c r="B38" s="36" t="s">
+        <v>676</v>
+      </c>
+      <c r="C38" s="36" t="s">
+        <v>491</v>
+      </c>
+      <c r="D38" s="36" t="s">
+        <v>524</v>
+      </c>
+      <c r="E38" s="36" t="s">
+        <v>684</v>
+      </c>
+      <c r="F38" s="36" t="s">
+        <v>685</v>
+      </c>
+      <c r="J38" s="36" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="37" t="s">
+        <v>691</v>
+      </c>
+      <c r="B39" s="37" t="s">
+        <v>676</v>
+      </c>
+      <c r="C39" s="37" t="s">
+        <v>451</v>
+      </c>
+      <c r="D39" s="37" t="s">
+        <v>536</v>
+      </c>
+      <c r="J39" s="37" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="37" t="s">
+        <v>693</v>
+      </c>
+      <c r="B40" s="37" t="s">
+        <v>676</v>
+      </c>
+      <c r="C40" s="37" t="s">
+        <v>451</v>
+      </c>
+      <c r="J40" s="37" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="37" t="s">
+        <v>695</v>
+      </c>
+      <c r="B41" s="37" t="s">
+        <v>676</v>
+      </c>
+      <c r="D41" s="37" t="s">
+        <v>696</v>
+      </c>
+      <c r="E41" s="37" t="s">
+        <v>697</v>
+      </c>
+      <c r="J41" s="37" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I43" s="32"/>
+      <c r="K43"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8190,7 +8641,7 @@
   <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8204,30 +8655,30 @@
         <v>76</v>
       </c>
       <c r="B1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -8237,12 +8688,12 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -8252,32 +8703,32 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>78</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>132</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -8368,7 +8819,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T57"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
+    <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="B47" sqref="B47:K47"/>
     </sheetView>
   </sheetViews>
@@ -8388,18 +8839,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B1" s="36" t="s">
-        <v>420</v>
-      </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
+      <c r="B1" s="38" t="s">
+        <v>419</v>
+      </c>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
       <c r="L1" s="30"/>
       <c r="M1" s="30"/>
       <c r="N1" s="30"/>
@@ -8444,147 +8895,147 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
@@ -8594,127 +9045,127 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -8743,182 +9194,182 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
@@ -8928,7 +9379,7 @@
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
@@ -8961,47 +9412,47 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
@@ -9121,27 +9572,27 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E1" t="s">
+        <v>277</v>
+      </c>
+      <c r="F1" t="s">
         <v>280</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>278</v>
-      </c>
-      <c r="F1" t="s">
-        <v>281</v>
-      </c>
-      <c r="G1" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B2" s="19">
         <v>400</v>
@@ -9168,7 +9619,7 @@
     </row>
     <row r="3" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B3" s="22">
         <v>700</v>
@@ -9195,7 +9646,7 @@
     </row>
     <row r="4" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B4" s="22">
         <v>650</v>
@@ -9222,7 +9673,7 @@
     </row>
     <row r="5" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B5" s="22">
         <v>500</v>
@@ -9249,7 +9700,7 @@
     </row>
     <row r="6" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B6" s="22">
         <v>550</v>
@@ -9276,7 +9727,7 @@
     </row>
     <row r="7" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B7" s="22">
         <v>650</v>
@@ -9303,7 +9754,7 @@
     </row>
     <row r="8" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B8" s="22">
         <v>600</v>
@@ -9330,7 +9781,7 @@
     </row>
     <row r="9" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B9" s="22">
         <v>400</v>
@@ -9357,7 +9808,7 @@
     </row>
     <row r="10" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B10" s="22">
         <v>750</v>
@@ -9384,7 +9835,7 @@
     </row>
     <row r="11" spans="1:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B11" s="25">
         <v>350</v>
